--- a/LCS-实时通讯软件5组/03.项目文件/个人日报/个人日报 _李思净.xlsx
+++ b/LCS-实时通讯软件5组/03.项目文件/个人日报/个人日报 _李思净.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950" tabRatio="747"/>
+    <workbookView windowWidth="9920" windowHeight="6800" tabRatio="747" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="95">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -34,7 +34,7 @@
     <t>文件编号：D0000-PPCMT001</t>
   </si>
   <si>
-    <t>个人日报_刘乐也</t>
+    <t>个人日报_李思净</t>
   </si>
   <si>
     <r>
@@ -180,7 +180,7 @@
     <t>姓名：</t>
   </si>
   <si>
-    <t>刘乐也</t>
+    <t>李思净</t>
   </si>
   <si>
     <t>日期：</t>
@@ -419,55 +419,54 @@
     <t>对连接数据库有一定的了解</t>
   </si>
   <si>
-    <t>初步登录界面的编译</t>
+    <t>服务器界面设计与功能开发</t>
   </si>
   <si>
-    <t>设计登录界面的控件</t>
+    <t>与组员讨论后，在QT软件上创建相关控件，建立初步的服务器</t>
   </si>
   <si>
-    <t>与组员讨论后，在QT软件上创建相关控件，建立初步的登录界面的控件函数</t>
+    <t>调试服务器的控件函数</t>
   </si>
   <si>
-    <t>设计登录与注册界面的控件</t>
+    <t>整体初步测试</t>
   </si>
   <si>
-    <t>对已设计好的登录控件进行调试，并修改</t>
-  </si>
-  <si>
-    <t>设计注册界面的控件</t>
-  </si>
-  <si>
-    <t>与组员讨论后，在QT软件上创建相关控件，建立初步的注册界面的控件函数</t>
-  </si>
-  <si>
-    <t>项目初步调试</t>
+    <t>整体项目初步调试</t>
   </si>
   <si>
     <t>与组员讨论，并确认调试结果</t>
   </si>
   <si>
+    <t>局域网测试</t>
+  </si>
+  <si>
     <t>项目程序调试</t>
   </si>
   <si>
-    <t>对注册与登录控件的最终调试</t>
+    <t>修改并合并整体代码</t>
   </si>
   <si>
-    <t>查看网上资料进行改进</t>
+    <r>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与项目的连接</t>
+    </r>
   </si>
   <si>
-    <t>编写项目文档</t>
+    <t>Linux与项目的连接</t>
   </si>
   <si>
-    <t>设计服务器UI</t>
+    <t>调试项目的bug</t>
   </si>
   <si>
-    <t>设计服务器UI界面</t>
-  </si>
-  <si>
-    <t>与其他部分合代码</t>
-  </si>
-  <si>
-    <t>与其他部分整合代码</t>
+    <t>解决成员的控件函数里的bug</t>
   </si>
   <si>
     <t>整合代码并修改bug，完成项目总结</t>
@@ -478,14 +477,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -578,6 +577,12 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -730,22 +735,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,9 +751,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,6 +791,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,6 +816,13 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,38 +857,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +880,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,13 +919,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +1015,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,121 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,25 +1075,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,6 +1913,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1957,32 +1988,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2010,152 +2015,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="69" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2189,7 +2194,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2414,33 +2419,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2525,7 +2536,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2542,185 +2553,185 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13086,8 +13097,8 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" customHeight="1"/>
@@ -13100,18 +13111,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="182"/>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="165"/>
+      <c r="A1" s="184"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="167"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="136" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="62"/>
@@ -13124,7 +13135,7 @@
       <c r="I2" s="86"/>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="140" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="62"/>
@@ -13137,7 +13148,7 @@
       <c r="I3" s="86"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="183"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -13148,7 +13159,7 @@
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="183"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -13159,7 +13170,7 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="183"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -13170,7 +13181,7 @@
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="183"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -13181,7 +13192,7 @@
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="183"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -13192,7 +13203,7 @@
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A9" s="183"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -13203,7 +13214,7 @@
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="183"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -13214,7 +13225,7 @@
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="183"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -13225,9 +13236,9 @@
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="183"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="184"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -13236,7 +13247,7 @@
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="183"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -13247,267 +13258,267 @@
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="185"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="196"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="198"/>
     </row>
     <row r="15" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="187" t="s">
+      <c r="A15" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="188"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="197"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A16" s="189"/>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="196"/>
+      <c r="A16" s="191"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="198"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A17" s="190" t="s">
+      <c r="A17" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="196"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="198"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A18" s="148">
+      <c r="A18" s="150">
         <v>44796</v>
       </c>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="196"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="198"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="185"/>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="196"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="198"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A20" s="185"/>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="196"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="198"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="185"/>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="196"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="198"/>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A22" s="185"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="196"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="198"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="185"/>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="196"/>
+      <c r="A23" s="187"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="198"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="185"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="196"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="198"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="185"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="196"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="198"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="185"/>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="196"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="198"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="185"/>
-      <c r="B27" s="186"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="196"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="198"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="185"/>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="196"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="198"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="185"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="196"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="185"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="196"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="198"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="196"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="198"/>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A32" s="185"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="196"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="198"/>
     </row>
     <row r="33" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A33" s="191" t="s">
+      <c r="A33" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="196"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="198"/>
     </row>
     <row r="34" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A34" s="192" t="s">
+      <c r="A34" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="196"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="198"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="193"/>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="196"/>
+      <c r="A35" s="195"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="198"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="194"/>
-      <c r="B36" s="195"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="198"/>
+      <c r="A36" s="196"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13531,8 +13542,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -13623,7 +13634,7 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="93" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="18"/>
@@ -13707,20 +13718,20 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>82</v>
+      <c r="C10" s="89" t="s">
+        <v>85</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
-      <c r="F10" s="35">
-        <v>3</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78" t="s">
+      <c r="F10" s="38">
+        <v>7</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="92" t="s">
         <v>46</v>
       </c>
     </row>
@@ -13729,20 +13740,20 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>86</v>
+      <c r="C11" s="94" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78" t="s">
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="91" t="s">
         <v>46</v>
       </c>
     </row>
@@ -13751,22 +13762,14 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="94" t="s">
-        <v>88</v>
-      </c>
+      <c r="C12" s="94"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38">
-        <v>1</v>
-      </c>
-      <c r="G12" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="90" t="s">
-        <v>46</v>
-      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="13"/>
@@ -13834,7 +13837,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -14027,7 +14030,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14118,8 +14121,8 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>90</v>
+      <c r="C5" s="93" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14202,20 +14205,20 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>91</v>
+      <c r="C10" s="94" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
         <v>5</v>
       </c>
-      <c r="G10" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="89" t="s">
+      <c r="G10" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="91" t="s">
         <v>46</v>
       </c>
     </row>
@@ -14224,44 +14227,28 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>93</v>
-      </c>
+      <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="38">
-        <v>3</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>93</v>
-      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="90" t="s">
-        <v>46</v>
-      </c>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:10">
       <c r="A12" s="13"/>
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>94</v>
-      </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38">
-        <v>2</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>95</v>
-      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="90" t="s">
-        <v>46</v>
-      </c>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="13"/>
@@ -14329,7 +14316,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -14521,7 +14508,7 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -14613,8 +14600,8 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>96</v>
+      <c r="C5" s="88" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14698,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -14706,11 +14693,11 @@
         <v>7</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="91" t="s">
         <v>46</v>
       </c>
     </row>
@@ -14719,20 +14706,20 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>93</v>
+      <c r="C11" s="89" t="s">
+        <v>92</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="38">
-        <v>5</v>
-      </c>
-      <c r="G11" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="90" t="s">
         <v>93</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="90" t="s">
+      <c r="J11" s="92" t="s">
         <v>46</v>
       </c>
     </row>
@@ -14816,7 +14803,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -15008,8 +14995,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -15101,7 +15088,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -15185,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -15193,7 +15180,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
@@ -15502,169 +15489,169 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="172"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:5">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
       <c r="E2" s="86"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="173" t="s">
+      <c r="D3" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="167"/>
+      <c r="E3" s="169"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="174">
+      <c r="A4" s="176">
         <v>1</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="176">
+      <c r="D4" s="178">
         <v>44788</v>
       </c>
-      <c r="E4" s="167"/>
+      <c r="E4" s="169"/>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:5">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="167"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="169"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:5">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="167"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="169"/>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:5">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="167"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="169"/>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:5">
-      <c r="A8" s="177"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="167"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="169"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:5">
-      <c r="A9" s="177"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="167"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="169"/>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:5">
-      <c r="A10" s="177"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="167"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="169"/>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:5">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="167"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="169"/>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:5">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="167"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="169"/>
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:5">
-      <c r="A13" s="177"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="167"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="169"/>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:5">
-      <c r="A14" s="177"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="167"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="169"/>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:5">
-      <c r="A15" s="177"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="167"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="169"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:5">
-      <c r="A16" s="177"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="167"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="169"/>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:5">
-      <c r="A17" s="177"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="167"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="169"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:5">
-      <c r="A18" s="177"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="167"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="169"/>
     </row>
     <row r="19" ht="17.45" customHeight="1" spans="1:5">
-      <c r="A19" s="177"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="167"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="169"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:5">
-      <c r="A20" s="177"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="167"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="169"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:5">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="181"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15683,7 +15670,7 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:H16"/>
     </sheetView>
   </sheetViews>
@@ -15699,18 +15686,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="132"/>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="165"/>
+      <c r="A1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="167"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="136" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="62"/>
@@ -15723,20 +15710,20 @@
       <c r="I2" s="86"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="166"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="168"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="140" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="62"/>
@@ -15749,7 +15736,7 @@
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="139"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -15760,7 +15747,7 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="139"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -15771,7 +15758,7 @@
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="139"/>
+      <c r="A7" s="141"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -15782,7 +15769,7 @@
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="139"/>
+      <c r="A8" s="141"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -15793,7 +15780,7 @@
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="9.75" customHeight="1" spans="1:9">
-      <c r="A9" s="139"/>
+      <c r="A9" s="141"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -15804,7 +15791,7 @@
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="139"/>
+      <c r="A10" s="141"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -15815,7 +15802,7 @@
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="139"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -15826,7 +15813,7 @@
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="139"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -15837,7 +15824,7 @@
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="139"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -15848,7 +15835,7 @@
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="139"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -15859,284 +15846,284 @@
       <c r="I14" s="86"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A15" s="140"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="86"/>
     </row>
     <row r="16" ht="53" customHeight="1" spans="1:9">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
       <c r="I16" s="86"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="144"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
       <c r="I17" s="86"/>
     </row>
     <row r="18" ht="53.25" customHeight="1" spans="1:9">
-      <c r="A18" s="146" t="s">
+      <c r="A18" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
       <c r="I18" s="86"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="140"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
       <c r="I19" s="86"/>
     </row>
     <row r="20" ht="45.75" customHeight="1" spans="1:9">
-      <c r="A20" s="147"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="86"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="148"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
       <c r="I21" s="86"/>
     </row>
     <row r="22" ht="22.15" customHeight="1" spans="1:9">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
       <c r="I22" s="86"/>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A23" s="140"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
       <c r="I23" s="86"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="140"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
       <c r="I24" s="86"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="140"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
+      <c r="A25" s="142"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
       <c r="I25" s="86"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="140"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
+      <c r="A26" s="142"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
       <c r="I26" s="86"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="140"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
       <c r="I27" s="86"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="140"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
+      <c r="A28" s="142"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
       <c r="I28" s="86"/>
     </row>
     <row r="29" ht="22.15" customHeight="1" spans="1:9">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
       <c r="I29" s="86"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="144"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="86"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="144"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
       <c r="I31" s="86"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="153"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
       <c r="I32" s="86"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:9">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="156">
+      <c r="B33" s="158">
         <v>10</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="156">
+      <c r="D33" s="158">
         <v>10</v>
       </c>
-      <c r="E33" s="155" t="s">
+      <c r="E33" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="156">
+      <c r="F33" s="158">
         <v>0</v>
       </c>
-      <c r="G33" s="157" t="s">
+      <c r="G33" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="158">
+      <c r="H33" s="160">
         <v>44788</v>
       </c>
-      <c r="I33" s="167"/>
+      <c r="I33" s="169"/>
     </row>
     <row r="34" ht="29.25" customHeight="1" spans="1:9">
-      <c r="A34" s="155" t="s">
+      <c r="A34" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="155" t="s">
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="167"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="169"/>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A35" s="160"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
       <c r="I35" s="86"/>
     </row>
     <row r="36" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A36" s="162"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
+      <c r="A36" s="164"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
       <c r="I36" s="86"/>
     </row>
     <row r="37" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A37" s="163"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
+      <c r="A37" s="165"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
       <c r="I37" s="87"/>
     </row>
   </sheetData>
@@ -16163,7 +16150,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -16194,14 +16181,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="117"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="119"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -16225,10 +16212,10 @@
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:18">
       <c r="A3" s="5"/>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -16249,14 +16236,14 @@
       <c r="I3" s="69">
         <v>5</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -16272,14 +16259,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
@@ -16295,15 +16282,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="118"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="120"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -16319,15 +16306,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="119"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="121"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -16343,15 +16330,15 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="120"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="122"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -16366,14 +16353,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -16393,17 +16380,17 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="106" t="s">
+      <c r="J9" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="121"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="123"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
@@ -16418,21 +16405,21 @@
       <c r="F10" s="35">
         <v>5</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="98" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -16445,24 +16432,24 @@
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="128">
+      <c r="F11" s="130">
         <v>2</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="108" t="s">
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -16477,14 +16464,14 @@
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -16499,14 +16486,14 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -16521,14 +16508,14 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -16543,14 +16530,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -16565,14 +16552,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -16590,14 +16577,14 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -16613,14 +16600,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -16638,15 +16625,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="122"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="124"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -16660,15 +16647,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="123"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="125"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -16682,15 +16669,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="123"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -16704,15 +16691,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="124"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="126"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
@@ -16866,7 +16853,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -16897,14 +16884,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="117"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="119"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -16931,7 +16918,7 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -16952,14 +16939,14 @@
       <c r="I3" s="69">
         <v>2</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -16975,14 +16962,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
@@ -16998,15 +16985,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="118"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="120"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -17022,15 +17009,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="119"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="121"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -17046,15 +17033,15 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="120"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="122"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -17069,14 +17056,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -17096,17 +17083,17 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="106" t="s">
+      <c r="J9" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="121"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="123"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
@@ -17126,16 +17113,16 @@
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -17151,21 +17138,21 @@
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="98" t="s">
         <v>58</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -17180,16 +17167,16 @@
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -17201,17 +17188,17 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="93"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -17226,14 +17213,14 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -17248,14 +17235,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -17270,14 +17257,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -17295,14 +17282,14 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -17318,14 +17305,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -17343,15 +17330,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="122"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="124"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -17365,15 +17352,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="123"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="125"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -17387,15 +17374,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="123"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -17409,15 +17396,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="124"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="126"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
@@ -17571,7 +17558,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:J11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -17620,7 +17607,7 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -18058,7 +18045,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:J14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -18569,8 +18556,8 @@
   <sheetPr/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -18601,16 +18588,16 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="117"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="119"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:20">
       <c r="A2" s="5"/>
@@ -18660,16 +18647,16 @@
       <c r="I3" s="69">
         <v>2</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
       <c r="T3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:20">
@@ -18685,16 +18672,16 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:20">
       <c r="A5" s="13"/>
@@ -18710,17 +18697,17 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="118"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="120"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:20">
       <c r="A6" s="13"/>
@@ -18736,17 +18723,17 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="119"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="121"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:20">
       <c r="A7" s="13"/>
@@ -18762,17 +18749,17 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="120"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="122"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:20">
       <c r="A8" s="13"/>
@@ -18787,16 +18774,16 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:20">
       <c r="A9" s="13"/>
@@ -18816,19 +18803,19 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="106" t="s">
+      <c r="J9" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="121"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="123"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:20">
       <c r="A10" s="13"/>
@@ -18848,18 +18835,18 @@
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
       <c r="T10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:20">
@@ -18880,18 +18867,18 @@
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="109" t="s">
+      <c r="J11" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
       <c r="T11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:20">
@@ -18912,18 +18899,18 @@
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
       <c r="T12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:20">
@@ -18931,23 +18918,31 @@
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="38">
+        <v>1</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>82</v>
+      </c>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
+      <c r="J13" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
       <c r="T13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:20">
@@ -18962,16 +18957,16 @@
       <c r="G14" s="39"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
       <c r="T14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:20">
@@ -18986,16 +18981,16 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
       <c r="T15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:20">
@@ -19010,16 +19005,16 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
       <c r="T16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:20">
@@ -19032,21 +19027,21 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
       <c r="T17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:20">
@@ -19062,16 +19057,16 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:20">
       <c r="A19" s="13"/>
@@ -19089,17 +19084,17 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="122"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="124"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:20">
       <c r="A20" s="13"/>
@@ -19113,17 +19108,17 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="123"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="125"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:20">
       <c r="A21" s="13"/>
@@ -19137,17 +19132,17 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="123"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="125"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:20">
       <c r="A22" s="13"/>
@@ -19161,17 +19156,17 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="124"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="126"/>
     </row>
     <row r="23" customHeight="1" spans="1:20">
       <c r="A23" s="5"/>
@@ -19335,7 +19330,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -19366,14 +19361,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="117"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="119"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -19421,14 +19416,14 @@
       <c r="I3" s="69">
         <v>5</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -19444,21 +19439,21 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="93" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="18"/>
@@ -19467,15 +19462,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="118"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="120"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -19491,15 +19486,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="119"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="121"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -19515,15 +19510,15 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="120"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="122"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -19538,14 +19533,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -19565,46 +19560,46 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="106" t="s">
+      <c r="J9" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="121"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="123"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>82</v>
+      <c r="C10" s="94" t="s">
+        <v>81</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
         <v>5</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="98" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -19619,14 +19614,14 @@
       <c r="G11" s="39"/>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -19641,14 +19636,14 @@
       <c r="G12" s="39"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -19663,14 +19658,14 @@
       <c r="G13" s="39"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -19685,14 +19680,14 @@
       <c r="G14" s="39"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -19707,14 +19702,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -19729,14 +19724,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -19754,14 +19749,14 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -19777,14 +19772,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -19802,15 +19797,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="122"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="124"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -19824,15 +19819,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="123"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="125"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -19846,15 +19841,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="123"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -19868,15 +19863,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="124"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="126"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
